--- a/static.xlsx
+++ b/static.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>index</t>
   </si>
@@ -40,52 +40,61 @@
     <t>date</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>patient result id</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>محمود جمال محمود</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>nCov19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> negative </t>
+  </si>
+  <si>
+    <t>42567890</t>
+  </si>
+  <si>
+    <t>2021-03-27 18:38:40</t>
+  </si>
+  <si>
+    <t>ahmed</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> positive </t>
+  </si>
+  <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>2021-03-29 19:32:32</t>
+  </si>
+  <si>
+    <t>2021-04-06 18:50:22</t>
+  </si>
+  <si>
     <t>Ahmad Faris Sabah</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>nCov19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> negative </t>
-  </si>
-  <si>
     <t>1234567</t>
   </si>
   <si>
-    <t>2021-03-27T14:31:08.000Z</t>
-  </si>
-  <si>
-    <t>محمود جمال محمود</t>
-  </si>
-  <si>
-    <t>42567890</t>
-  </si>
-  <si>
-    <t>2021-03-27T15:38:40.000Z</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> positive </t>
-  </si>
-  <si>
-    <t>345678</t>
-  </si>
-  <si>
-    <t>2021-03-29T16:32:32.000Z</t>
+    <t>2021-04-06 19:39:17</t>
   </si>
 </sst>
 </file>
@@ -468,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,109 +514,159 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
       <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
         <v>75000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
       <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
         <v>75000</v>
       </c>
     </row>
